--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-2.946028070658181</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.61317999965668</v>
+        <v>-8.622423165462939</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.074337267133207</v>
+        <v>-3.048231215266806</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.442132605270734</v>
+        <v>-5.4254922883589</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.171612968726252</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.856801570935518</v>
+        <v>-8.866961197940698</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.171351231190398</v>
+        <v>-3.140335565758348</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.369863093584406</v>
+        <v>-5.350905439069587</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.500634103000588</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.676327359616204</v>
+        <v>-9.687246340186203</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.056662658296877</v>
+        <v>-3.025228039173893</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.246062277913044</v>
+        <v>-5.225350254817434</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.04522420520337</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.44515975169372</v>
+        <v>-10.45988859239067</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.959177371337385</v>
+        <v>-2.928593751899113</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.451179386534366</v>
+        <v>-5.434251038960014</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7709032657267394</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.2245838167702</v>
+        <v>-11.23750591967499</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.806193812631816</v>
+        <v>-2.775086501079875</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.004574751997406</v>
+        <v>-4.98714889691507</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.667420307607586</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.88480246447276</v>
+        <v>-11.90162607362438</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.774156947578112</v>
+        <v>-2.746519096279228</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.146521499407401</v>
+        <v>-5.123727800159956</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.6866470286885338</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.38058178848325</v>
+        <v>-12.40056064261972</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.654506391907578</v>
+        <v>-2.625585494930205</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.706253539445837</v>
+        <v>-4.684114455340477</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.7853574257597978</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.35971584110741</v>
+        <v>-13.37536114300328</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.401078685800286</v>
+        <v>-2.371621004406403</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.623104324098034</v>
+        <v>-4.603583700561021</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9065114854151911</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.10612111841706</v>
+        <v>-14.12438488088127</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.37698884857151</v>
+        <v>-2.346431413738921</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.257907628630927</v>
+        <v>-4.233451206922584</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.003172258411866</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.80504061331976</v>
+        <v>-14.81969090019966</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.198645499261517</v>
+        <v>-2.170392309729073</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.042997477483994</v>
+        <v>-4.018043548267664</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.038650541859922</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.47057473597607</v>
+        <v>-15.48292077755582</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.181010167333713</v>
+        <v>-2.156121699631592</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.525065977065311</v>
+        <v>-3.502481754663333</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.9916368775540747</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.44252111434013</v>
+        <v>-16.45266764904246</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.017801520108756</v>
+        <v>-1.990687360923541</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.883883537694618</v>
+        <v>-2.861770638194943</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.8597582943812135</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.08613872203938</v>
+        <v>-17.09669111812981</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.733292687055206</v>
+        <v>-1.711009587618588</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.52247051774877</v>
+        <v>-2.49789626531485</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.6542128362584749</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.99276760152607</v>
+        <v>-18.00152635212718</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.563590257620753</v>
+        <v>-1.542433096228524</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.924636693087033</v>
+        <v>-1.902798731947034</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.4004596655839947</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.91110099975326</v>
+        <v>-18.91764715117412</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.395157781561947</v>
+        <v>-1.375244388939682</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.577834683112551</v>
+        <v>-1.55074670853302</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.133814896632204</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.7020593836333</v>
+        <v>-19.70699518180463</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.148158396149943</v>
+        <v>-1.128428295767462</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.048460510010199</v>
+        <v>-1.025444241614445</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1072788848744392</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.690083109887</v>
+        <v>-20.69281940118092</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.049743555688688</v>
+        <v>-1.03056333202556</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6884221818627322</v>
+        <v>-0.6607057767467981</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2856271779630531</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.53152541352473</v>
+        <v>-21.53153850582758</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8992475345230471</v>
+        <v>-0.8775012195029401</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3195858262056254</v>
+        <v>-0.2948413738347631</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3739777685381137</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18171535725053</v>
+        <v>-22.17920163510492</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6416564761120866</v>
+        <v>-0.6208920838051092</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05710591115651703</v>
+        <v>0.08571259286568848</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3534837310054191</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81205736986828</v>
+        <v>-22.81097070873241</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3399836340330346</v>
+        <v>-0.3200571491079275</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3726173173392736</v>
+        <v>0.4029129061150277</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2199112516705342</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44287070538832</v>
+        <v>-23.44094613687059</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06686510445178712</v>
+        <v>-0.0504342643854209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3344925314641672</v>
+        <v>0.3687289033952809</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.01839899083265878</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95492376183107</v>
+        <v>-23.95125791703539</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04943382169126555</v>
+        <v>0.06641453847698427</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5933273586450916</v>
+        <v>0.628152884204083</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.3428806586953794</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34043971130854</v>
+        <v>-24.3314845761648</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03171993594641018</v>
+        <v>0.0451395463591794</v>
       </c>
       <c r="G24" t="n">
-        <v>0.52429164576067</v>
+        <v>0.5597325095532225</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.7232537032680868</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61209190297151</v>
+        <v>-24.6070382740746</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3186508450256787</v>
+        <v>0.3310099789082681</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5138570803958143</v>
+        <v>0.5481458215382949</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.126267743280961</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.62949157344816</v>
+        <v>-24.62454268297399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3324632245236997</v>
+        <v>0.3431465436425482</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3527693862312168</v>
+        <v>0.3891921727368988</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.515350366114699</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60887119647245</v>
+        <v>-24.59885558479852</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1507027841720167</v>
+        <v>0.1621978260670522</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3290985026933761</v>
+        <v>0.3657700429530508</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.85659390741376</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72173993927097</v>
+        <v>-24.71104352784928</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2653128032484867</v>
+        <v>0.2790728135351408</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04286148566471907</v>
+        <v>0.0760242887628112</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.120445847954669</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76834853738751</v>
+        <v>-24.75502057309463</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2099323622279854</v>
+        <v>0.2269916328307545</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0504866335967878</v>
+        <v>-0.02006012179261642</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.285059484154908</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54045082182159</v>
+        <v>-24.53043521014767</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08708728466406973</v>
+        <v>0.09906674176424908</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2460201765379666</v>
+        <v>-0.2167326950810254</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.335558353221019</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06787105844664</v>
+        <v>-24.05653312418571</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08463902403266695</v>
+        <v>0.09817646517101171</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7036354377648179</v>
+        <v>-0.6772413552358981</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.266769546551809</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15519671840095</v>
+        <v>-24.13817672470671</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1490269694082758</v>
+        <v>0.1596841039214408</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.756057018343089</v>
+        <v>-0.7367196870458597</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.079950774172675</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.73088827560345</v>
+        <v>-23.71560955818716</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0613085403687111</v>
+        <v>0.07354984352572497</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.216408570863861</v>
+        <v>-1.201430976412927</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.782792577398702</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.1694772374474</v>
+        <v>-23.15565176564654</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0961918628172535</v>
+        <v>-0.08313883688405262</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.288678082550189</v>
+        <v>-1.274708595418067</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.389258824700798</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82801688703234</v>
+        <v>-22.81269889270752</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2872085612780368</v>
+        <v>-0.2743388275846201</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.309730505519684</v>
+        <v>-1.298667509618426</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.9120934204084812</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10135480240802</v>
+        <v>-22.08794828429809</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4202787273613406</v>
+        <v>-0.4047512561910535</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.511181769345324</v>
+        <v>-1.502383741835684</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.3699554341660841</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28799548836579</v>
+        <v>-21.27561016987751</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3564013817965591</v>
+        <v>-0.3419212948536101</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.640167136942009</v>
+        <v>-1.630269355993664</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2218285802000884</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91269153510487</v>
+        <v>-20.90207367750023</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4098965312078518</v>
+        <v>-0.398610966158284</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.889064906266063</v>
+        <v>-1.879965755791063</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8441092553411017</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25892739270328</v>
+        <v>-20.24817861207022</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2625557550270666</v>
+        <v>-0.248010206569909</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.040765419293143</v>
+        <v>-2.033198068250625</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.479635894462615</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95622025869973</v>
+        <v>-19.94397895554271</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5440664507298606</v>
+        <v>-0.52851279495389</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.266358889558925</v>
+        <v>-2.257861985014645</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.113978493826696</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41923945764633</v>
+        <v>-19.41016649177702</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2663917997596924</v>
+        <v>-0.2501311596302686</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.106632794889867</v>
+        <v>-2.0956614451085</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.728733636471167</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86406035564294</v>
+        <v>-18.84888637664938</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.00552766563830048</v>
+        <v>0.008441821493821234</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.076022990845911</v>
+        <v>-2.06873057816307</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.311593616244218</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96002375211891</v>
+        <v>-17.94579241892995</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01559564652358783</v>
+        <v>-0.0004871290442359441</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.965537047164585</v>
+        <v>-1.955573804702031</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.846093007124636</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62517501463893</v>
+        <v>-17.60984392801127</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03207342812313679</v>
+        <v>0.04392196219489888</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.168729587268174</v>
+        <v>-2.155663469032131</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.31906923902818</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11690563371744</v>
+        <v>-17.09802653301967</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002052777707058913</v>
+        <v>0.01454283461806558</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.209629941345726</v>
+        <v>-2.198553853141625</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.719506429828534</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.74106489604001</v>
+        <v>-16.72014339609893</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01853598698479203</v>
+        <v>0.03471807329716545</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.147794995024253</v>
+        <v>-2.138826767577671</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.036650312563563</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06839546833496</v>
+        <v>-16.05602324214953</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02425732332662632</v>
+        <v>0.04080599411856808</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.437383641580392</v>
+        <v>-2.428389229528127</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.266591543893033</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41900415508251</v>
+        <v>-15.40630462132603</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.007936649361178078</v>
+        <v>0.01117811278774198</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.370861650841583</v>
+        <v>-2.361958884909209</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.405865775670869</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88215427705753</v>
+        <v>-14.86845972828509</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1449945401330241</v>
+        <v>0.1602601652464767</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.550226199773229</v>
+        <v>-2.544256109677403</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.45424311769016</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18159824429961</v>
+        <v>-14.17388687792583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2903976554932338</v>
+        <v>0.3091065562540604</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.457938557041902</v>
+        <v>-2.454874958176938</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.414978320285733</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41843481935256</v>
+        <v>-13.41012120704806</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2856844264702125</v>
+        <v>0.3017879589655355</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.523675009610209</v>
+        <v>-2.519393826580965</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.29086892946022</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83296012857341</v>
+        <v>-12.82170074812952</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3699726721652449</v>
+        <v>0.3874508964589492</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.535444989864921</v>
+        <v>-2.528283500210497</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.08810502491371</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17983750901106</v>
+        <v>-12.17280694238505</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4191342693359263</v>
+        <v>0.4357353093392349</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.554075336808697</v>
+        <v>-2.547987415987294</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.814012714451241</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80256971032388</v>
+        <v>-11.79449175947054</v>
       </c>
       <c r="F54" t="n">
-        <v>0.309316033099528</v>
+        <v>0.3276583493807863</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.65861737499988</v>
+        <v>-2.652647284904052</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.473683915909638</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34876430922398</v>
+        <v>-11.33937712808646</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06098123279766795</v>
+        <v>0.07738588825835072</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.121967064871407</v>
+        <v>-3.116782512946084</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.076954392262695</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90006490623234</v>
+        <v>-10.89718459960716</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1529677525636353</v>
+        <v>0.1695295156584188</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.19139554684108</v>
+        <v>-3.184836303117375</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.63185601761703</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14463903226475</v>
+        <v>-10.1406720645037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0872705769038539</v>
+        <v>0.1073803540687451</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.558817933791281</v>
+        <v>-3.548998706659986</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.147848003781546</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.843070928608427</v>
+        <v>-9.837519792203535</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08728909688487978</v>
+        <v>-0.06704839669157127</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.591561783198438</v>
+        <v>-3.583811139916135</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>2.637138402758056</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.299360683894385</v>
+        <v>-9.292853809382047</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003872607802058837</v>
+        <v>0.02445370786925222</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.878505784580548</v>
+        <v>-3.86805812691285</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>2.107808067220756</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.932370342937961</v>
+        <v>-8.932095404578284</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1322742494490506</v>
+        <v>-0.113277318025706</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.788915156234616</v>
+        <v>-3.782578481659221</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.574145644965965</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.404973107564709</v>
+        <v>-8.406347799363092</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1580529937444092</v>
+        <v>-0.138178878030669</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.191398730194959</v>
+        <v>-4.184001579089384</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.047016827362606</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.89138825168948</v>
+        <v>-7.896062203803976</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0995042154362102</v>
+        <v>-0.08135828369757787</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.147552607978018</v>
+        <v>-4.14286556356068</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.5388490374666691</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.408308461435471</v>
+        <v>-7.409761707050903</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1590611010632221</v>
+        <v>-0.137223139923223</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.150406729997515</v>
+        <v>-4.145876793214278</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.06373632239269392</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.054358054109407</v>
+        <v>-7.063548850704299</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3167578887918125</v>
+        <v>-0.2954174351597991</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.401085052508043</v>
+        <v>-4.394970947080957</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3685273515816561</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.681541638388415</v>
+        <v>-6.686542898073955</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2617178476451962</v>
+        <v>-0.2423281471365999</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.687413715656593</v>
+        <v>-4.678327657484435</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7440038919710742</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.433036638149613</v>
+        <v>-6.438037897835152</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3799937115173495</v>
+        <v>-0.3593078730274223</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.683080163415982</v>
+        <v>-4.671179260132853</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.054468387629082</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.268034345435339</v>
+        <v>-6.276583619190986</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4349028296355486</v>
+        <v>-0.4145312064138229</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.800675227540365</v>
+        <v>-4.786024940660473</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.290825084922447</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.991668924749344</v>
+        <v>-6.000349121533408</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4041621025631758</v>
+        <v>-0.384798586660263</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.797467613344142</v>
+        <v>-4.787046140282128</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.44754604518962</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.858965343145608</v>
+        <v>-5.865904263651723</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6616484225514024</v>
+        <v>-0.6387630771840652</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.900163636834641</v>
+        <v>-4.887293903141225</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.523445688185689</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.618721585999935</v>
+        <v>-5.629025228336373</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6051944126978795</v>
+        <v>-0.5841288974255423</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.769607192896949</v>
+        <v>-4.753922614092561</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.518774294482403</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.496570400486631</v>
+        <v>-5.505944489321307</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.70630626754453</v>
+        <v>-0.6837875066567611</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.747926339391051</v>
+        <v>-4.73123365326785</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.440373349566202</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.473370839851092</v>
+        <v>-5.486227481241667</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.798593910275857</v>
+        <v>-0.7774367488836278</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.648922345301918</v>
+        <v>-4.633853104731092</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.296027178086947</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.506978781245803</v>
+        <v>-5.519062976768716</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.859433841581358</v>
+        <v>-0.8363782962770785</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.463954290754012</v>
+        <v>-4.445467959141495</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.097846959327047</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.743818539652628</v>
+        <v>-5.756950119402878</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.750898651023449</v>
+        <v>-0.7277907365078025</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.350300009784989</v>
+        <v>-4.329823648140529</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8574788567488963</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.945440003415209</v>
+        <v>-5.961294782156539</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.082382666673111</v>
+        <v>-1.060112659539335</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.185769039973017</v>
+        <v>-4.162425464006219</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5877493237555725</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.474526145855043</v>
+        <v>-6.487906479359287</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9928574998413885</v>
+        <v>-0.972328768985562</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.018488686564283</v>
+        <v>-3.998850232301694</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3001012782843719</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.941698788156354</v>
+        <v>-6.952460661092253</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.050987324458652</v>
+        <v>-1.031388147104588</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.939620654245725</v>
+        <v>-3.918280200613712</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.003591179901912814</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.517131682655898</v>
+        <v>-7.525131079692193</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.146024350786742</v>
+        <v>-1.122392744157426</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.533916373786318</v>
+        <v>-3.51618939573862</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2926725040414097</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.943613447725125</v>
+        <v>-7.950735660471024</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.11104171759365</v>
+        <v>-1.087946895380845</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.324164589959024</v>
+        <v>-3.306215042763018</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.5817139966223654</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.415721888197767</v>
+        <v>-8.423865300565321</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.294687449554541</v>
+        <v>-1.273621934282204</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.956087587866738</v>
+        <v>-2.938622455875875</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.8539720243907952</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.358249862076468</v>
+        <v>-9.36638018214118</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218058201021919</v>
+        <v>-1.197621116285984</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.931722812278285</v>
+        <v>-2.914571895555624</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.101224240319195</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18635110911848</v>
+        <v>-10.1916273071637</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.311393227980584</v>
+        <v>-1.290196789679829</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.757883215145847</v>
+        <v>-2.738650622271351</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.313807824567854</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02118179982115</v>
+        <v>-11.02510949067366</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.421813710147701</v>
+        <v>-1.398417764969537</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.382042477468417</v>
+        <v>-2.365847298853201</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.484124731565285</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.23948604075797</v>
+        <v>-12.243701762273</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.495628113569353</v>
+        <v>-1.475033921199318</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.278652561927306</v>
+        <v>-2.259563984384069</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.60599974062105</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.12936986491009</v>
+        <v>-13.13087547973688</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.59527363049773</v>
+        <v>-1.573618961597515</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.933028859208579</v>
+        <v>-1.91346895876304</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.673790375625087</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3227594535391</v>
+        <v>-14.32604562155237</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.807892628647361</v>
+        <v>-1.782126976654844</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.690755795122438</v>
+        <v>-1.671968340544561</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.683379386969102</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42759270574668</v>
+        <v>-15.42884956681949</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.847876521525993</v>
+        <v>-1.824860253130238</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.274721687720909</v>
+        <v>-1.25698161737037</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.629923668173567</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84671977997274</v>
+        <v>-16.84204582785824</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.874951403802682</v>
+        <v>-1.847758690800417</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9703256466507779</v>
+        <v>-0.9513941767416421</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.512041898654872</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54310255147803</v>
+        <v>-18.54002586031022</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.100374674131522</v>
+        <v>-2.076206283085695</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7613855855996716</v>
+        <v>-0.7402546088131257</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.326000024492892</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15845706069587</v>
+        <v>-20.15323323186202</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.323114022377808</v>
+        <v>-2.297021062814247</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4731847231447556</v>
+        <v>-0.4502339162632099</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.072211111212796</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98703281399407</v>
+        <v>-21.98154713910338</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.535549728287655</v>
+        <v>-2.507427461783627</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6392474923892091</v>
+        <v>-0.6151576551604331</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7495406654440396</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.71173423654601</v>
+        <v>-23.70538446966777</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.640183412598729</v>
+        <v>-2.610044931457076</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4608779584735331</v>
+        <v>-0.4363298906452968</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.3576239573502526</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.79220589651901</v>
+        <v>-25.78334240749517</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.813237471560664</v>
+        <v>-2.784107097737824</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4570942829522743</v>
+        <v>-0.4365917367021313</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09970809943605935</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.06332767047324</v>
+        <v>-28.05039247526561</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.685535149642468</v>
+        <v>-2.657412883138441</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5918140791936355</v>
+        <v>-0.5714031790633846</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.620792156492472</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.34322128733141</v>
+        <v>-30.33277362966372</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.173904230244534</v>
+        <v>-3.146371117368384</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9799615815422883</v>
+        <v>-0.9577570359227209</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.201026026419535</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52751490883931</v>
+        <v>-32.51522123647093</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.232845777637985</v>
+        <v>-3.206543341228957</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.204612406003466</v>
+        <v>-1.181504491487819</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.826168924620307</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.7521590077054</v>
+        <v>-34.7407687042331</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.612116698659948</v>
+        <v>-3.588485092030632</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.440470241697161</v>
+        <v>-1.417702727055399</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.495760465314775</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.25494908044396</v>
+        <v>-37.24743409861281</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.854887270254074</v>
+        <v>-3.835707046590945</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.872647158502539</v>
+        <v>-1.846541106636137</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.172835619843675</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.79006404889875</v>
+        <v>-39.78316440530116</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.746810310295625</v>
+        <v>-3.732146931112892</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.352925195948417</v>
+        <v>-2.325117144712591</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.872551220501988</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.35560552915771</v>
+        <v>-42.34975326978746</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.929906165537164</v>
+        <v>-3.912899264145762</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.717624383907539</v>
+        <v>-2.689305732860885</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.522387867062906</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59563308386283</v>
+        <v>-44.59544979162305</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.169167999969708</v>
+        <v>-4.159008372964529</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.32800063469165</v>
+        <v>-3.298281107240932</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.184706017336477</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89622563151377</v>
+        <v>-46.90158038337604</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.312175223909882</v>
+        <v>-4.304306749902005</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.602533132979804</v>
+        <v>-3.577985065151568</v>
       </c>
     </row>
   </sheetData>
